--- a/02.국기반/3개월차/API_함수.xlsx
+++ b/02.국기반/3개월차/API_함수.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>WM_PAINT 메시지 함수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,82 @@
 원하는 클라이언트 크기를 RECT에 담고 전달하면
 전달한 클라이언트 크기가 반영된 전체 윈도우크기를 RECT에 반환한다.
 AdjustWindowRect(&amp;rc, Ws_OVERLAPPEDWINDOW, FALSE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PeekMessage함수 : 메시지 큐에 메시지가 존재하는지 검사하는 함수.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존재한다면 TRUE 반환 . 그렇지 않다면 FALSE 반환.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>while(PeekMessage(&amp;msg, nullptr,0,0,PM_REMOVE))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_REMOVE : GetMessage처럼 메시지를 큐에서 얻어옴. 얻어온 메시지는 큐에서 제거.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM_NOREMOVE : 순수하게 메시지가 큐에 있는지 없는지만 조사.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG msg;
+msg.message = WM_NULL;
+while(WM_QUIT != msg.message)
+{
+ if(PeekMessage(&amp;msg,nullptr,0,0PM_REMOVE))
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">extern.h 선언 
+// extern는 외부 전역변수가 이러한것이 있다라고 알려주는 키워드
+extern HWND g_hWnd;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>  0x0000 이전에 누른 적이 없고 호출 시점에도 눌려있지 않은 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  0x0001 이전에 누른 적이 있고 호출 시점에는 눌려있지 않은 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  0x8000 이전에 누른 적이 없고 호출 시점에는 눌려있는 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  0x8001 이전에 누른 적이 있고 호출 시점에도 눌려있는 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetAsyncKeyState() 키가 눌렀는지 안눌렸는지 확인해주는 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetAsyncKeyState( VK_LEFT &amp; 0x0000 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetTickCount함수 : 운영체제(OS)가 시작된 뒤로 흐른 시각을 누적한 값을 반환. 1/1000초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWIRD dwOldTime = GetTickCount();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWIRD dwCurTime = 0;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,21 +180,64 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -127,12 +246,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,82 +548,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C26"/>
+  <dimension ref="B5:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="186.375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:3">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:3">
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:3">
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:3">
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:3">
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3">
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" ht="49.5">
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3">
       <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" ht="82.5">
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="3:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" ht="33">
       <c r="C26" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="115.5">
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="115.5">
+      <c r="C37" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="C38" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="17.25" thickBot="1">
+      <c r="C39" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="17.25" thickBot="1">
+      <c r="C40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="2:4" ht="17.25" thickBot="1">
+      <c r="C41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="2:4" ht="17.25" thickBot="1">
+      <c r="C42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="2:4" ht="17.25" thickBot="1">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="C46" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="C47" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="C48" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
